--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 6 1 variable 1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 6 1 variable 1.xlsx_with_dialog_acts.xlsx
@@ -1307,12 +1307,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1343,12 +1343,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1383,12 +1383,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1419,12 +1419,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1747,12 +1747,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2075,12 +2075,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2111,12 +2111,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2183,12 +2183,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2219,12 +2219,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2363,12 +2363,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2439,12 +2439,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2475,12 +2475,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2515,12 +2515,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2551,12 +2551,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3307,12 +3307,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3343,12 +3343,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
